--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,33 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xampp\htdocs\Ticketing-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411C7DB4-BAD4-455B-A7D8-9C5EF60AD128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF0E9CC-2955-4F8D-A3D9-87276FA49E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0B6927C-D90D-45A3-B57B-8D611F28E634}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t xml:space="preserve">Admin and orgnnizations </t>
   </si>
@@ -210,13 +201,25 @@
     <t xml:space="preserve">price </t>
   </si>
   <si>
-    <t>Timeslots will be defined by Org</t>
-  </si>
-  <si>
     <t>TimeslotID</t>
   </si>
   <si>
-    <t>CompanyPackage</t>
+    <t>TimeSlot</t>
+  </si>
+  <si>
+    <t>packageId</t>
+  </si>
+  <si>
+    <t>Ticket-User</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone no</t>
   </si>
 </sst>
 </file>
@@ -567,11 +570,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B750ADD0-5505-4A76-959B-55A0A2A1F59E}">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,7 +590,7 @@
     <col min="9" max="9" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -612,8 +615,11 @@
       <c r="H1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -638,8 +644,11 @@
       <c r="H2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -664,8 +673,11 @@
       <c r="H3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -690,8 +702,11 @@
       <c r="H4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -716,8 +731,11 @@
       <c r="H5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>51</v>
       </c>
@@ -731,10 +749,13 @@
         <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>23</v>
       </c>
@@ -744,8 +765,11 @@
       <c r="F7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -756,9 +780,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -767,7 +791,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>48</v>
       </c>
@@ -778,56 +802,52 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
       <c r="C12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
       <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
       <c r="C14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
       <c r="C15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>